--- a/predictions/single/Incidencia.xlsx
+++ b/predictions/single/Incidencia.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.551113277980617</v>
+        <v>5.480929442984326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9143067557223836</v>
+        <v>0.9082937312902659</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.551113277980617</v>
+        <v>5.480929442984326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9143067557223836</v>
+        <v>0.9082937312902659</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.551113277980617</v>
+        <v>5.480929442984326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9143067557223836</v>
+        <v>0.9082937312902659</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.551113277980617</v>
+        <v>5.480929442984326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9143067557223836</v>
+        <v>0.9082937312902659</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.551113277980617</v>
+        <v>5.480929442984326</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9143067557223836</v>
+        <v>0.9082937312902659</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.551113277980617</v>
+        <v>5.480929442984326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9143067557223836</v>
+        <v>0.9082937312902659</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.551113277980617</v>
+        <v>5.480929442984326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9143067557223836</v>
+        <v>0.9082937312902659</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.551113277980617</v>
+        <v>5.480929442984326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9143067557223836</v>
+        <v>0.9082937312902659</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.551113277980617</v>
+        <v>5.480929442984326</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9143067557223836</v>
+        <v>0.9082937312902659</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/Incidencia.xlsx
+++ b/predictions/single/Incidencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>R2</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,10 +462,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.480929442984326</v>
+        <v>5.465944912114937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9082937312902659</v>
+        <v>0.908410277199289</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -470,10 +480,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.480929442984326</v>
+        <v>5.465944912114937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9082937312902659</v>
+        <v>0.908410277199289</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -483,10 +498,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.480929442984326</v>
+        <v>5.465944912114937</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9082937312902659</v>
+        <v>0.908410277199289</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -496,10 +516,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.480929442984326</v>
+        <v>5.465944912114937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9082937312902659</v>
+        <v>0.908410277199289</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -509,10 +534,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.480929442984326</v>
+        <v>5.465944912114937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9082937312902659</v>
+        <v>0.908410277199289</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -522,10 +552,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.480929442984326</v>
+        <v>5.465944912114937</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9082937312902659</v>
+        <v>0.908410277199289</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -535,10 +570,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.480929442984326</v>
+        <v>5.465944912114937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9082937312902659</v>
+        <v>0.908410277199289</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -548,10 +588,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.480929442984326</v>
+        <v>5.465944912114937</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9082937312902659</v>
+        <v>0.908410277199289</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -561,10 +606,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.480929442984326</v>
+        <v>5.465944912114937</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9082937312902659</v>
+        <v>0.908410277199289</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
       </c>
     </row>
   </sheetData>
